--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPatient</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/oncology-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/oncology-patient</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPatient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T08:26:42+00:00</t>
+    <t>2024-03-25T09:35:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -876,7 +876,7 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the patient</t>
+    <t>Name(s) of the patient</t>
   </si>
   <si>
     <t>A name associated with the individual.</t>
@@ -5049,13 +5049,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
@@ -5415,7 +5415,7 @@
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>91</v>
@@ -5659,7 +5659,7 @@
         <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5779,7 +5779,7 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPatient</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/oncology-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1172,7 +1172,7 @@
 dateTime</t>
   </si>
   <si>
-    <t>Indicates if the patient is deceased or not</t>
+    <t>Indicates if the individual is deceased or not</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not.</t>
@@ -6621,7 +6621,7 @@
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>91</v>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/StructureDefinition-oncology-patient.xlsx
+++ b/main/ig/StructureDefinition-oncology-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T13:54:15+00:00</t>
+    <t>2024-06-11T08:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
